--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/805fd1da7aba8867/Documents/Övrigt/Kodning/Price-Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{85B4D5A3-E340-46D7-8FC3-4872A2E57961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9C45B407-AC24-4FB3-A0AC-B5AEEF2F1188}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{85B4D5A3-E340-46D7-8FC3-4872A2E57961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{23D669B7-399E-4C77-96C9-1F6CD21D68B9}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15840" xr2:uid="{1BA5D742-444A-4C1A-BB7C-2D038ED7020F}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>elgiganten</t>
   </si>
   <si>
-    <t>https://www.amazon.de/-/en/Logitech-autofocus-exposure-correction-connection/dp/B07MM4V7NR/ref=sr_1_1?dchild=1&amp;keywords=c920s&amp;qid=1616080094&amp;sr=8-1</t>
-  </si>
-  <si>
     <t>amazon_de</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>https://www.amazon.se/Logitech-webbkamera-videosamtal-inspelning-stereoljud/dp/B07PL9XPYQ/ref=sr_1_2?dchild=1&amp;keywords=c920&amp;qid=1616080081&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Logitech-Calling-Correction-FaceTime-Hangouts/dp/B07QZZS7S1/ref=sr_1_3?dchild=1&amp;keywords=c920&amp;qid=1616088262&amp;sr=8-3</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,6 +496,7 @@
     <hyperlink ref="A2" r:id="rId2" xr:uid="{F40A3A6D-7216-4924-B97E-932C8868ED2A}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{D46A961F-C438-474A-B2C9-68B60652D1D7}"/>
     <hyperlink ref="D2" r:id="rId4" xr:uid="{0AAE84DC-3BA7-4DD5-91EE-5932CEFF15F5}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{E86EEB46-4BD9-430E-9A92-F25F737B80E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -2,86 +2,64 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/805fd1da7aba8867/Documents/Övrigt/Kodning/Price-Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{85B4D5A3-E340-46D7-8FC3-4872A2E57961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{23D669B7-399E-4C77-96C9-1F6CD21D68B9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_496D309F026584CEEB3B98154BBF8EFFB0698B56" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{09510CEB-34E8-458E-A82A-4EA247368DEE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15840" xr2:uid="{1BA5D742-444A-4C1A-BB7C-2D038ED7020F}"/>
+    <workbookView xWindow="38280" yWindow="1065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>elgiganten</t>
+  </si>
+  <si>
     <t>webbhallen</t>
   </si>
   <si>
     <t>netonnet</t>
   </si>
   <si>
+    <t>amazon_de</t>
+  </si>
+  <si>
+    <t>amazon_sv</t>
+  </si>
+  <si>
+    <t>https://www.elgiganten.se/product/datorer-tillbehor/webbkamera/26764/logitech-c920s-pro-hd-webbkamera</t>
+  </si>
+  <si>
+    <t>https://www.webhallen.com/se/product/232445-Logitech-C920-HD-Pro-Webcam</t>
+  </si>
+  <si>
     <t>https://www.netonnet.se/art/dator-surfplatta/datortillbehor/webbkamera/logitech-c920-pro-hd-webcam/179307.8921/</t>
   </si>
   <si>
-    <t>https://www.webhallen.com/se/product/232445-Logitech-C920-HD-Pro-Webcam</t>
-  </si>
-  <si>
-    <t>https://www.elgiganten.se/product/datorer-tillbehor/webbkamera/26764/logitech-c920s-pro-hd-webbkamera</t>
-  </si>
-  <si>
-    <t>elgiganten</t>
-  </si>
-  <si>
-    <t>amazon_de</t>
-  </si>
-  <si>
-    <t>amazon_sv</t>
+    <t>https://www.amazon.de/-/en/Logitech-Calling-Correction-FaceTime-Hangouts/dp/B07QZZS7S1/ref=sr_1_3?dchild=1&amp;keywords=c920&amp;qid=1616088262&amp;sr=8-3</t>
   </si>
   <si>
     <t>https://www.amazon.se/Logitech-webbkamera-videosamtal-inspelning-stereoljud/dp/B07PL9XPYQ/ref=sr_1_2?dchild=1&amp;keywords=c920&amp;qid=1616080081&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/-/en/Logitech-Calling-Correction-FaceTime-Hangouts/dp/B07QZZS7S1/ref=sr_1_3?dchild=1&amp;keywords=c920&amp;qid=1616088262&amp;sr=8-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,20 +82,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,7 +105,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -140,44 +115,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -204,32 +179,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -256,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -285,219 +224,248 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C300FF-52AD-44F5-B032-B527DAC7F8E2}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="E10" sqref="A5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1249</v>
+      </c>
+      <c r="B4">
+        <v>1190</v>
+      </c>
+      <c r="C4">
+        <v>1190</v>
+      </c>
+      <c r="D4">
+        <v>1106</v>
+      </c>
+      <c r="E4">
+        <v>943</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6A08C3CC-8776-4929-A8A6-05082C6518B2}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{F40A3A6D-7216-4924-B97E-932C8868ED2A}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{D46A961F-C438-474A-B2C9-68B60652D1D7}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{0AAE84DC-3BA7-4DD5-91EE-5932CEFF15F5}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{E86EEB46-4BD9-430E-9A92-F25F737B80E9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.webhallen.com/se/product/232445-Logitech-C920-HD-Pro-Webcam</t>
+          <t>https://www.webhallen.com/api/product/232445</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1190.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
